--- a/config_11.2/xian_shi_hong_bao_server.xlsx
+++ b/config_11.2/xian_shi_hong_bao_server.xlsx
@@ -78,7 +78,8 @@
     <t>xshb_042_deblocking_v0</t>
   </si>
   <si>
-    <t>携带金币20万</t>
+    <t>携带金币2万</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,7 +524,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
